--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H2">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I2">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J2">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N2">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O2">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P2">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q2">
-        <v>27.15923742609036</v>
+        <v>37.7828592250285</v>
       </c>
       <c r="R2">
-        <v>27.15923742609036</v>
+        <v>226.697155350171</v>
       </c>
       <c r="S2">
-        <v>0.01598748159556106</v>
+        <v>0.01455274938317964</v>
       </c>
       <c r="T2">
-        <v>0.01598748159556106</v>
+        <v>0.009883017465576707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6372428978811771</v>
+        <v>0.6472015</v>
       </c>
       <c r="H3">
-        <v>0.6372428978811771</v>
+        <v>1.294403</v>
       </c>
       <c r="I3">
-        <v>0.02361320375102848</v>
+        <v>0.02102898872844592</v>
       </c>
       <c r="J3">
-        <v>0.02361320375102848</v>
+        <v>0.01428114079438904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N3">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O3">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P3">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q3">
-        <v>12.95443546425979</v>
+        <v>16.8140626246615</v>
       </c>
       <c r="R3">
-        <v>12.95443546425979</v>
+        <v>100.884375747969</v>
       </c>
       <c r="S3">
-        <v>0.007625722155467415</v>
+        <v>0.006476239345266278</v>
       </c>
       <c r="T3">
-        <v>0.007625722155467415</v>
+        <v>0.004398123328812334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H4">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I4">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J4">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N4">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O4">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P4">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q4">
-        <v>89.34561114726543</v>
+        <v>51.11847879624601</v>
       </c>
       <c r="R4">
-        <v>89.34561114726543</v>
+        <v>460.0663091662141</v>
       </c>
       <c r="S4">
-        <v>0.05259394037657578</v>
+        <v>0.0196892036767392</v>
       </c>
       <c r="T4">
-        <v>0.05259394037657578</v>
+        <v>0.02005690526548408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.09633485901022</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H5">
-        <v>2.09633485901022</v>
+        <v>2.626902</v>
       </c>
       <c r="I5">
-        <v>0.07768024142879044</v>
+        <v>0.02845125902248994</v>
       </c>
       <c r="J5">
-        <v>0.07768024142879044</v>
+        <v>0.02898259453590742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N5">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O5">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P5">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q5">
-        <v>42.61614328354558</v>
+        <v>22.74865696739401</v>
       </c>
       <c r="R5">
-        <v>42.61614328354558</v>
+        <v>204.737912706546</v>
       </c>
       <c r="S5">
-        <v>0.02508630105221466</v>
+        <v>0.008762055345750733</v>
       </c>
       <c r="T5">
-        <v>0.02508630105221466</v>
+        <v>0.008925689270423339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H6">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I6">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J6">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N6">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O6">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P6">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q6">
-        <v>937.5771305138677</v>
+        <v>206.698323325341</v>
       </c>
       <c r="R6">
-        <v>937.5771305138677</v>
+        <v>1860.284909928069</v>
       </c>
       <c r="S6">
-        <v>0.5519115608198133</v>
+        <v>0.07961358560403797</v>
       </c>
       <c r="T6">
-        <v>0.5519115608198133</v>
+        <v>0.0811003924039933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.9985693361856</v>
+        <v>3.540639</v>
       </c>
       <c r="H7">
-        <v>21.9985693361856</v>
+        <v>10.621917</v>
       </c>
       <c r="I7">
-        <v>0.8151627922314451</v>
+        <v>0.1150430856889177</v>
       </c>
       <c r="J7">
-        <v>0.8151627922314451</v>
+        <v>0.1171915486778959</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N7">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O7">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P7">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q7">
-        <v>447.2063128819666</v>
+        <v>91.98453013059901</v>
       </c>
       <c r="R7">
-        <v>447.2063128819666</v>
+        <v>827.8607711753911</v>
       </c>
       <c r="S7">
-        <v>0.2632512314116319</v>
+        <v>0.03542950008487967</v>
       </c>
       <c r="T7">
-        <v>0.2632512314116319</v>
+        <v>0.03609115627390258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H8">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I8">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J8">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N8">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O8">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P8">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q8">
-        <v>52.20791210349392</v>
+        <v>1367.461214061819</v>
       </c>
       <c r="R8">
-        <v>52.20791210349392</v>
+        <v>12307.15092655637</v>
       </c>
       <c r="S8">
-        <v>0.03073256516014899</v>
+        <v>0.5267023393051645</v>
       </c>
       <c r="T8">
-        <v>0.03073256516014899</v>
+        <v>0.536538658241057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.22496521825007</v>
+        <v>23.42392733333334</v>
       </c>
       <c r="H9">
-        <v>1.22496521825007</v>
+        <v>70.271782</v>
       </c>
       <c r="I9">
-        <v>0.04539140943373137</v>
+        <v>0.761094502822696</v>
       </c>
       <c r="J9">
-        <v>0.04539140943373137</v>
+        <v>0.7753081633885378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3288816671525</v>
+        <v>25.979641</v>
       </c>
       <c r="N9">
-        <v>20.3288816671525</v>
+        <v>77.938923</v>
       </c>
       <c r="O9">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977427</v>
       </c>
       <c r="P9">
-        <v>0.3229431396040562</v>
+        <v>0.3079672269977428</v>
       </c>
       <c r="Q9">
-        <v>24.90217296818331</v>
+        <v>608.5452229300874</v>
       </c>
       <c r="R9">
-        <v>24.90217296818331</v>
+        <v>5476.907006370786</v>
       </c>
       <c r="S9">
-        <v>0.01465884427358238</v>
+        <v>0.2343921635175313</v>
       </c>
       <c r="T9">
-        <v>0.01465884427358238</v>
+        <v>0.2387695051474809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.02960683953876</v>
+        <v>1.243757666666667</v>
       </c>
       <c r="H10">
-        <v>1.02960683953876</v>
+        <v>3.731273</v>
       </c>
       <c r="I10">
-        <v>0.03815235315500464</v>
+        <v>0.04041240008444284</v>
       </c>
       <c r="J10">
-        <v>0.03815235315500464</v>
+        <v>0.04116711337605242</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.6199138764738</v>
+        <v>58.378819</v>
       </c>
       <c r="N10">
-        <v>42.6199138764738</v>
+        <v>175.136457</v>
       </c>
       <c r="O10">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022572</v>
       </c>
       <c r="P10">
-        <v>0.6770568603959438</v>
+        <v>0.6920327730022573</v>
       </c>
       <c r="Q10">
-        <v>43.88175482777034</v>
+        <v>72.60910370219565</v>
       </c>
       <c r="R10">
-        <v>43.88175482777034</v>
+        <v>653.481933319761</v>
       </c>
       <c r="S10">
-        <v>0.02583131244384472</v>
+        <v>0.02796670529411363</v>
       </c>
       <c r="T10">
-        <v>0.02583131244384472</v>
+        <v>0.02848899162612787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,185 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.243757666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.731273</v>
+      </c>
+      <c r="I11">
+        <v>0.04041240008444284</v>
+      </c>
+      <c r="J11">
+        <v>0.04116711337605242</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>25.979641</v>
+      </c>
+      <c r="N11">
+        <v>77.938923</v>
+      </c>
+      <c r="O11">
+        <v>0.3079672269977427</v>
+      </c>
+      <c r="P11">
+        <v>0.3079672269977428</v>
+      </c>
+      <c r="Q11">
+        <v>32.31237767099766</v>
+      </c>
+      <c r="R11">
+        <v>290.811399038979</v>
+      </c>
+      <c r="S11">
+        <v>0.0124456947903292</v>
+      </c>
+      <c r="T11">
+        <v>0.01267812174992455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="H11">
-        <v>1.02960683953876</v>
-      </c>
-      <c r="I11">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="J11">
-        <v>0.03815235315500464</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>20.3288816671525</v>
-      </c>
-      <c r="N11">
-        <v>20.3288816671525</v>
-      </c>
-      <c r="O11">
-        <v>0.3229431396040562</v>
-      </c>
-      <c r="P11">
-        <v>0.3229431396040562</v>
-      </c>
-      <c r="Q11">
-        <v>20.93075560467433</v>
-      </c>
-      <c r="R11">
-        <v>20.93075560467433</v>
-      </c>
-      <c r="S11">
-        <v>0.01232104071115992</v>
-      </c>
-      <c r="T11">
-        <v>0.01232104071115992</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.045475</v>
+      </c>
+      <c r="H12">
+        <v>2.09095</v>
+      </c>
+      <c r="I12">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J12">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>58.378819</v>
+      </c>
+      <c r="N12">
+        <v>175.136457</v>
+      </c>
+      <c r="O12">
+        <v>0.6920327730022572</v>
+      </c>
+      <c r="P12">
+        <v>0.6920327730022573</v>
+      </c>
+      <c r="Q12">
+        <v>61.03359579402501</v>
+      </c>
+      <c r="R12">
+        <v>366.2015747641501</v>
+      </c>
+      <c r="S12">
+        <v>0.02350818973902214</v>
+      </c>
+      <c r="T12">
+        <v>0.01596480800001825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.045475</v>
+      </c>
+      <c r="H13">
+        <v>2.09095</v>
+      </c>
+      <c r="I13">
+        <v>0.03396976365300761</v>
+      </c>
+      <c r="J13">
+        <v>0.02306943922721731</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.979641</v>
+      </c>
+      <c r="N13">
+        <v>77.938923</v>
+      </c>
+      <c r="O13">
+        <v>0.3079672269977427</v>
+      </c>
+      <c r="P13">
+        <v>0.3079672269977428</v>
+      </c>
+      <c r="Q13">
+        <v>27.16106517447501</v>
+      </c>
+      <c r="R13">
+        <v>162.96639104685</v>
+      </c>
+      <c r="S13">
+        <v>0.01046157391398546</v>
+      </c>
+      <c r="T13">
+        <v>0.007104631227199065</v>
       </c>
     </row>
   </sheetData>
